--- a/hw02/code/raw_record/data.xlsx
+++ b/hw02/code/raw_record/data.xlsx
@@ -111,12 +111,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -125,10 +140,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,12 +426,12 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">

--- a/hw02/code/raw_record/data.xlsx
+++ b/hw02/code/raw_record/data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Error" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,14 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -639,4 +648,78 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1">
+        <v>400</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.10577E-14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.65166E-10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5212399999999999E-9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.6185100000000002E-8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.3028199999999995E-7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.08829E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.5293899999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hw02/code/raw_record/data.xlsx
+++ b/hw02/code/raw_record/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +431,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -507,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.10577E-14</v>
+        <v>3.49676E-15</v>
       </c>
       <c r="D3" s="2">
-        <v>1.65166E-10</v>
+        <v>1.65166E-11</v>
       </c>
       <c r="E3" s="2">
-        <v>2.5212399999999999E-9</v>
+        <v>1.78279E-10</v>
       </c>
       <c r="F3" s="2">
-        <v>3.6185100000000002E-8</v>
+        <v>1.8092499999999999E-9</v>
       </c>
       <c r="G3" s="2">
-        <v>6.3028199999999995E-7</v>
+        <v>2.2283799999999999E-8</v>
       </c>
       <c r="H3" s="2">
-        <v>1.08829E-5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.5293899999999999E-4</v>
+        <v>2.72073E-7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.7035999999999998E-6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -655,7 +651,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -690,32 +686,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1.10577E-14</v>
+        <v>3.49676E-15</v>
       </c>
       <c r="D2" s="2">
-        <v>1.65166E-10</v>
+        <v>1.65166E-11</v>
       </c>
       <c r="E2" s="2">
-        <v>2.5212399999999999E-9</v>
+        <v>1.78279E-10</v>
       </c>
       <c r="F2" s="2">
-        <v>3.6185100000000002E-8</v>
+        <v>1.8092499999999999E-9</v>
       </c>
       <c r="G2" s="2">
-        <v>6.3028199999999995E-7</v>
+        <v>2.2283799999999999E-8</v>
       </c>
       <c r="H2" s="2">
-        <v>1.08829E-5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.5293899999999999E-4</v>
+        <v>2.72073E-7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.7035999999999998E-6</v>
       </c>
     </row>
   </sheetData>
